--- a/_Lang_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/_Lang_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="1"/>
   <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="489">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -673,6 +673,15 @@
   </si>
   <si>
     <t xml:space="preserve">I'm not quite ready for the next bill yet... Can you wait a little longer? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loytel_bill_give_lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…大事なものだから失くさないでくれと、私は言ったな？ もう一枚渡すから、今度は気を付けてくれ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Do you recall when I told you, 'Don't lose it'? Here’s another, so take care of it this time.</t>
   </si>
   <si>
     <t xml:space="preserve">default</t>
@@ -2452,9 +2461,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2464,7 +2473,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49671720" cy="131040"/>
+          <a:ext cx="49671360" cy="130680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2602,14 +2611,14 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B75" sqref="B75"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8"/>
@@ -2642,7 +2651,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -2656,7 +2665,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -2670,7 +2679,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -2684,7 +2693,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -2698,7 +2707,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -2712,7 +2721,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -2726,7 +2735,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -2740,7 +2749,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -2754,7 +2763,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
@@ -2768,7 +2777,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2782,7 +2791,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
@@ -2796,7 +2805,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -2810,7 +2819,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>41</v>
@@ -2824,7 +2833,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
@@ -2838,7 +2847,7 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>47</v>
@@ -2852,7 +2861,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>50</v>
@@ -2866,7 +2875,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
@@ -2880,7 +2889,7 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>56</v>
@@ -2894,7 +2903,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>59</v>
@@ -2908,7 +2917,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>62</v>
@@ -2922,7 +2931,7 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>65</v>
@@ -2936,7 +2945,7 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>68</v>
@@ -2950,7 +2959,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>71</v>
@@ -2964,7 +2973,7 @@
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>74</v>
@@ -2978,7 +2987,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>77</v>
@@ -2992,7 +3001,7 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>80</v>
@@ -3006,7 +3015,7 @@
         <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>83</v>
@@ -3020,7 +3029,7 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>77</v>
@@ -3034,7 +3043,7 @@
         <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>80</v>
@@ -3048,7 +3057,7 @@
         <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>88</v>
@@ -3062,7 +3071,7 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>91</v>
@@ -3076,7 +3085,7 @@
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>94</v>
@@ -3090,7 +3099,7 @@
         <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>97</v>
@@ -3104,7 +3113,7 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>100</v>
@@ -3118,7 +3127,7 @@
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>103</v>
@@ -3132,7 +3141,7 @@
         <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>106</v>
@@ -3146,7 +3155,7 @@
         <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>109</v>
@@ -3160,7 +3169,7 @@
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>112</v>
@@ -3174,7 +3183,7 @@
         <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>115</v>
@@ -3188,7 +3197,7 @@
         <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>118</v>
@@ -3202,7 +3211,7 @@
         <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>121</v>
@@ -3216,7 +3225,7 @@
         <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>124</v>
@@ -3230,7 +3239,7 @@
         <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>127</v>
@@ -3244,7 +3253,7 @@
         <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>130</v>
@@ -3258,7 +3267,7 @@
         <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>133</v>
@@ -3272,7 +3281,7 @@
         <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>136</v>
@@ -3286,7 +3295,7 @@
         <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>139</v>
@@ -3300,7 +3309,7 @@
         <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>142</v>
@@ -3314,7 +3323,7 @@
         <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>145</v>
@@ -3328,7 +3337,7 @@
         <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>148</v>
@@ -3342,7 +3351,7 @@
         <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>151</v>
@@ -3356,7 +3365,7 @@
         <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>154</v>
@@ -3370,7 +3379,7 @@
         <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>157</v>
@@ -3384,7 +3393,7 @@
         <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>160</v>
@@ -3398,7 +3407,7 @@
         <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>163</v>
@@ -3412,7 +3421,7 @@
         <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>166</v>
@@ -3426,7 +3435,7 @@
         <v>168</v>
       </c>
       <c r="B61" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>169</v>
@@ -3440,7 +3449,7 @@
         <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>172</v>
@@ -3454,7 +3463,7 @@
         <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>175</v>
@@ -3468,7 +3477,7 @@
         <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>178</v>
@@ -3482,7 +3491,7 @@
         <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>181</v>
@@ -3496,7 +3505,7 @@
         <v>183</v>
       </c>
       <c r="B66" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>184</v>
@@ -3510,7 +3519,7 @@
         <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>187</v>
@@ -3524,7 +3533,7 @@
         <v>189</v>
       </c>
       <c r="B68" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>190</v>
@@ -3538,7 +3547,7 @@
         <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>193</v>
@@ -3552,7 +3561,7 @@
         <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>196</v>
@@ -3566,7 +3575,7 @@
         <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>199</v>
@@ -3580,7 +3589,7 @@
         <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>202</v>
@@ -3594,7 +3603,7 @@
         <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>205</v>
@@ -3608,7 +3617,7 @@
         <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>208</v>
@@ -3622,13 +3631,24 @@
         <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="76" ht="12.8">
+      <c r="A76" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3650,7 +3670,7 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
@@ -3691,269 +3711,269 @@
     </row>
     <row r="5" ht="74.6">
       <c r="A5" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" ht="43.25">
       <c r="A6" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" ht="43.25">
       <c r="A7" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" ht="43.25">
       <c r="A8" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" ht="43.25">
       <c r="A9" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" ht="74.6">
       <c r="A10" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" ht="43.25">
       <c r="A11" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" ht="43.25">
       <c r="A12" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" ht="95.5">
       <c r="A13" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B13" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" ht="22.35">
       <c r="A14" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" ht="32.8">
       <c r="A15" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B15" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" ht="12.8">
       <c r="A16" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B16" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" ht="22.35">
       <c r="A17" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B17" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" ht="22.35">
       <c r="A18" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B18" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" ht="200.7">
       <c r="A19" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" ht="168.65">
       <c r="A20" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B20" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" ht="241.75">
       <c r="A21" s="5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B21" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" ht="32.8">
       <c r="A22" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B22" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" ht="22.35">
       <c r="A23" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B23" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4004,130 +4024,130 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="64.15">
+    <row r="5" ht="74.6">
       <c r="A5" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" ht="53.7">
       <c r="A6" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" ht="22.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" ht="43.25">
       <c r="A7" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" ht="64.15">
       <c r="A8" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" ht="64.15">
       <c r="A9" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" ht="95.5">
       <c r="A10" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" ht="64.15">
       <c r="A11" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" ht="53.7">
       <c r="A12" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B12" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" ht="74.6">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" ht="95.5">
       <c r="A13" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B13" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4189,293 +4209,293 @@
     </row>
     <row r="5" ht="74.6">
       <c r="A5" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" ht="53.7">
       <c r="A6" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" ht="64.15">
       <c r="A7" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" ht="74.6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" ht="64.15">
       <c r="A8" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" ht="64.15">
       <c r="A9" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" ht="95.5">
       <c r="A10" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" ht="64.15">
       <c r="A11" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B11" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" ht="64.15">
       <c r="A12" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" ht="95.5">
       <c r="A13" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B13" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" ht="43.25">
       <c r="A14" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B14" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" ht="32.8">
       <c r="A15" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B15" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" ht="43.25">
       <c r="A16" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B16" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" ht="32.8">
       <c r="A17" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" ht="44.75">
       <c r="A18" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" ht="179.1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" ht="200.7">
       <c r="A19" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B19" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" ht="168.65">
       <c r="A20" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B20" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" ht="241.75">
       <c r="A21" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B21" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" ht="67.15">
       <c r="A22" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B22" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" ht="22.35">
       <c r="A23" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B23" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" ht="74.6">
       <c r="A24" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B24" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" ht="12.8">
       <c r="A25" s="9" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B25" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>185</v>
@@ -4483,30 +4503,30 @@
     </row>
     <row r="26" ht="12.8">
       <c r="A26" s="9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B26" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" ht="95.5">
       <c r="A27" s="9" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B27" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" ht="12.8">

--- a/_Lang_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/_Lang_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="489">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -2615,7 +2615,7 @@
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="B76" sqref="B76"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
       <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
@@ -3643,6 +3643,9 @@
     <row r="76" ht="12.8">
       <c r="A76" s="1" t="s">
         <v>213</v>
+      </c>
+      <c r="B76" t="s">
+        <v>368</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>214</v>
